--- a/data/hotels_by_city/Dallas/Dallas_shard_123.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_123.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>BrightSprite</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>sonyaj68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r562292861-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>I was concerned when I arrived around 3 and they had no rooms ready. I waited in the lobby until room was ready (4’ish), then when I got to the room I couldn’t get the lights to turn on. It was raining so no light coming in from the window.  By using the flashlight on my phone I finally found that you have to put one of the room keys in a slot by the door to make the room electricity to work. Fortunately these were the only negative points of my stay. This is a modern facility. There are literally electric outlets everywhere. The room was very comfortable. The bathroom and shower had great shelving which I love. It was handy that the room had a mini fridge and microwave. All of the staff I encountered were very friendly and helpful. The restaurant (note - not open at lunch) is pretty good. There are lots of restaurants fairly close but not walking distance. I recommend this hotel. More</t>
   </si>
   <si>
+    <t>Veronica32801</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r539789520-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>I travel a bunch for work, so it's takes a lot to impress me.  I was very happy with my stay at the Marriott Courtyard.  Was greeted by a very nice employee when I arrived and headed to my room.  The hotel is VERY nicely updated - the lobby area had couches with outlets on them!  This was a very exciting feature for me!  I'm always needing/wanting to plug in my laptop or phone, so this was an impressive renovation for me.  My room was also nicely updated - AWESOME SHOWER.  Again, it's the little things that matter.  I highly recommend this hotel - reasonably priced and very nicely updated.  they did a great job.More</t>
   </si>
   <si>
+    <t>AKjay7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r539729956-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>This hotel has a great location. Just off the freeway, easy access in all directions. Has a restaurant but also close to many many other restaurants, Walmart, Walgreens and a mall. In traffic it took me 20 min to get downtown to the JFK museum and grassy Knoll. Will definitely stay here again. Fast internet, comfy bed and large circular couch. Microwave, fridge and coffee maker, pool. More</t>
   </si>
   <si>
+    <t>David H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r537098336-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>We decided to head to Dallas to visit my college roommate and his wife.  We wanted to stay close to their home and found this hotel on tripadvisor with very good ratings.  We were not disappointed.   The staff was extremely friendly and helpful.  We were pleasantly greeted and as a rewards member we were given our choice of floors to stay on.  The room was well kept, clean and very comfortable.  I especially liked the upgraded electrical outlets with usb support for charging items.   The only thing I did not like were the pillows, they were not very supportive, but the bed itself was very comfortable.  Nice shower and again everything was very clean.  Nice bar area as well, with sections for individuals to sit and watch televisions on a small screen.   Parking was very easy and it was in a great location for our trip.   I would highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Momo806</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r534760301-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -297,6 +315,9 @@
     <t>Very friendly and helpful staff we had a issuse with our debit card and the staff helped us out and when we got to the room u was amazed at the bathroom. Very comfortable bed and clean rooms. Will definitely be back.More</t>
   </si>
   <si>
+    <t>laddiebuck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r507130103-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -324,6 +345,9 @@
     <t>This hotel is relatively new and has all the new courtyard features. Excellent bed and rooms. Nice walk in shower, flat screen T.V.with internet for netflix,hulu,etc.Lobby is the new style with bistro.Bistro has limited hours.More</t>
   </si>
   <si>
+    <t>Yudansha2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r502484988-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -351,6 +375,9 @@
     <t>Modern, clean and excellent service. This will be my hotel of choice for future trips to the area. Close to a wide variety of restaurants and amenities such as grocery stores and largest shopping centres. More</t>
   </si>
   <si>
+    <t>Cypressman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r501054952-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t>Overall pleased with the property. Fairly easy to get off and on freeway.  Plenty shopping and restaurant choices. Safe area.  Hotel was very clean, friendly staff and plenty parking.  I would have rated higher if property had a hot tub.More</t>
   </si>
   <si>
+    <t>Raymond S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r495005410-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -393,6 +423,9 @@
     <t>Upon first site, you know that it is a new hotel. The hotel has been open for one year and has more to offer than most hotels. It had a pool, cafe and a fitness center with treadmills, ellipticals etc. The rooms was really nice, but one thing I would change is the refrigerator. It only cools for 2 hours, so I had to keep pushing the button for it to cool in the morning, after I got back for our daily sightseeing and before I went to bed. I'm diabetic, so my insulin has to be refrigerated at all times. Even the sodas and water I had in there wasn't as cold as it should be. While I was there, one of the elevators wasn't working and there was a wedding going on, so it took awhile for the elevator to get from floor to floor with hundreds a guest staying there. Other than that, I would stay there again.More</t>
   </si>
   <si>
+    <t>SWsalesGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r475652606-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -420,6 +453,9 @@
     <t>Stayed one night on a recent business trip to Carrolton. Hotel is new with lots of parking. Checked easily. Room was nice since it was new. King sized bed, lots of power outlet. Internet was slow. Small couch, coffee maker and fridge. Walk in shower. AC was from an individual machine in the room that was a little noisy. Might be an issue when the AC gets older or if you are a light sleeper. Fitness area has a few cardo machines and free weights. Pool on site but I didn’t look at it. Paid breakfast that had everything from oatmeal to eggs. I would stay here again.More</t>
   </si>
   <si>
+    <t>Grant Park Fam C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r468374911-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -450,6 +486,9 @@
     <t>Solid courtyard - Newish, clean, good coffee bar, friendly staff, good service, close to the highway, downtown restaurants, and good hot shower.The room has a pull out small sofa that is new, clean, and likely never used - perfect for our two year old.  We had enough room for the pullout sofa, king bed, &amp; a travel cot the hotel supplied for our infant.  One other bonus - the rooms are super air tight quiet!  So quiet in fact, we overslept every single day!!  Added unintended BONUS!More</t>
   </si>
   <si>
+    <t>Brian A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r466970798-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -474,6 +513,9 @@
     <t>I have stayed at several Marriott Courtyards recently and the Carrollton location is excellent. Great friendly staff and willing to assist you in your needs when you have lost your cork screw! Nicely appointed rooms, comfortable beds and a huge shower. Lots of restaurants in the area and a little shopping.More</t>
   </si>
   <si>
+    <t>MortgageWino</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r465653381-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -522,6 +564,9 @@
     <t>Stayed twice now - was upgrade to a nice suite o the second visit.  Lobby is cool, lots of tvs, spaces to hand out, different format seating.  Typical Courtyard food (good beer selection!).  Room was very nice, clean, modern, and brand new shape.  My local choice of places to stay.More</t>
   </si>
   <si>
+    <t>TGuan863</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r464092433-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -546,6 +591,9 @@
     <t>Where do I start? This hotel is less than a year old. Great location, next to the highway, and it is a Courtyard, so it is more modern, a touch of an upscale feel to it, but not this place. We drove in around 7 pm, and no bellhop. Not that we needed one, but we are accustomed to being greeted by one. There were barely 30 vehicles in the whole lot, so we're thinking to ourselves: "This is a new hotel, maybe it's not known yet, and we can maybe get an upgrade". So I walk in, introduce myself, and start the check in process. During the check in process, I asked if there were any complimentary upgrades, and the representatives said that there were none available. I even asked if since I was a Marriott program holder. Nothing. With less than 30 cars, no room upgrades in this new place. Disappointment. Next thing, we checked into our room and started to settle in. The restroom had a few noticeable issues. Nothing the would inconvenience us, but details in the workmanship and the details that stand out that would make the difference between a Marriott vs an off-brand inn. Pictures will show how the shower walls were peeling off, a shower decorative piece was detaching from the wall and a detail that is typically not shown in upscale hotels - the toilet paper wrapper still on it - showing...Where do I start? This hotel is less than a year old. Great location, next to the highway, and it is a Courtyard, so it is more modern, a touch of an upscale feel to it, but not this place. We drove in around 7 pm, and no bellhop. Not that we needed one, but we are accustomed to being greeted by one. There were barely 30 vehicles in the whole lot, so we're thinking to ourselves: "This is a new hotel, maybe it's not known yet, and we can maybe get an upgrade". So I walk in, introduce myself, and start the check in process. During the check in process, I asked if there were any complimentary upgrades, and the representatives said that there were none available. I even asked if since I was a Marriott program holder. Nothing. With less than 30 cars, no room upgrades in this new place. Disappointment. Next thing, we checked into our room and started to settle in. The restroom had a few noticeable issues. Nothing the would inconvenience us, but details in the workmanship and the details that stand out that would make the difference between a Marriott vs an off-brand inn. Pictures will show how the shower walls were peeling off, a shower decorative piece was detaching from the wall and a detail that is typically not shown in upscale hotels - the toilet paper wrapper still on it - showing it's brand. Not that the brand matters, but these are minor details that start to add up. We left right afterward for dinner. When we came back, it roughly around 930 pm. We called for a few things such as shampoo, conditioner, etc. The reply that we got were along the lines of "We're a little busy right now, I will try to get it to you, but I'm by myself right now". I hung up, and was so appalled. I have never heard of anything like this in the many times we've traveled. After about 30 minutes, we were greeted at the door with the item's that I requested. We are appreciative. Rooms were nicely decorated, TV swivels out, low-speed internet is complimentary (~2-5 Mbps), my hotspot was faster than that. bed was comfy, but pillows could use some touch. The final thing we have to say about the room is the quality of cleaning they do. It is quite disgusting when we find something from the previous guest in an obvious place. While we are packing our belongings, we typically do a good run down on the room. We expect nothing or close to it in the obvious places, drawers, net to the bed, night stands, etc. Well, we were stunned when we found used socks next to the bed. This speaks volume...More</t>
   </si>
   <si>
+    <t>MeliMel11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r460782218-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -570,6 +618,9 @@
     <t>This was my second stay in 5 months. Will stay again.  Close to Spa Castle &amp; grocery store.  Multiple restaurant options.  Uber available. Made to order breakfast was excellent.  Was too cold for the pool this time, but enjoyed drinking a glass of wine by the hug firepit. Staff was very friendly. Rooms very spacious &amp; clean.More</t>
   </si>
   <si>
+    <t>jetreaux</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r457478816-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -594,6 +645,9 @@
     <t>Everything was perfect, check in, room, made to order breakfast,  checkout.  One of the best stays while traveling for work ,  ever.  Lighting in the room was these of any hotel I have ever stayed in.   Great staff too.More</t>
   </si>
   <si>
+    <t>Nik3300</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r450305987-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -621,6 +675,9 @@
     <t>What I first noticed when we walked in was how nice and bright the lights were. Usually, rooms are dim but the nice white lights and plenty of outlets for electronics were a plus. The room was clean and spacious. Beds were very comfortable and soft. Bathroom is good size and also clean. Staff very friendly. Will be back when in the area. More</t>
   </si>
   <si>
+    <t>jdkrup77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r445049889-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -648,6 +705,9 @@
     <t>My wife and I decided to stay here as we were going to be in town one day and am very familiar with the neighborhood.  I booked the room online and for $100 a night it was a great value.  This hotel is brand new and well designed.  They have a hotel bar and a bistro that is a nice touch for a budget minded hotel.  The room details were very well designed and beds were very comfortable.  About the only possible improvement we could see would be to add a hot tub.  Great location for those looking at hanging around north Dallas and close to DFW airport.  I would definitely recommend the Courtyard in Carrollton.More</t>
   </si>
   <si>
+    <t>steelcity1704</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r443884920-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -666,6 +726,9 @@
     <t>I cant rate the hotel. Lobby was very, very nice. I noticed a full bar walking in!! they also have a Conference Center. Here comes the BAD part. I highly recommend not having your Christmas Party here. It could've been a fluke, could be because it's new, but I'm guessing not. Our party started at 6. I arrived at 6:05 with part of my family. Our salads were on the table. Rented DJ doing his thing. Good times?? Nope! 7 pm came, CEO came by to say hi. He then pondered and asked, I wonder where our dinner is? 5 Minutes later, DJ announces dinner will be served at 7:30. 8pm comes and goes, no dinner, no announcement. I think around 8:15 we start to waiters and plates with silver covers!!! Yeah!! Kids meals are coming out, some adult meals slowly but surely coming out as well. Our table watches others be served, and we're sure we're next. NOPE, they all disappear. A few stragglers here and there, meaning meals here and there to the other tables. I'm pretty sure at this point two tables are without. I pull one of the waiters aside and ask when we will be served. His response "We don't have any adult meals. Would you like chicken tenders and mac n cheese? Sorry, that's all we have!" I'm not sure what our people did about this, but I wanted to share with all. Luckily...I cant rate the hotel. Lobby was very, very nice. I noticed a full bar walking in!! they also have a Conference Center. Here comes the BAD part. I highly recommend not having your Christmas Party here. It could've been a fluke, could be because it's new, but I'm guessing not. Our party started at 6. I arrived at 6:05 with part of my family. Our salads were on the table. Rented DJ doing his thing. Good times?? Nope! 7 pm came, CEO came by to say hi. He then pondered and asked, I wonder where our dinner is? 5 Minutes later, DJ announces dinner will be served at 7:30. 8pm comes and goes, no dinner, no announcement. I think around 8:15 we start to waiters and plates with silver covers!!! Yeah!! Kids meals are coming out, some adult meals slowly but surely coming out as well. Our table watches others be served, and we're sure we're next. NOPE, they all disappear. A few stragglers here and there, meaning meals here and there to the other tables. I'm pretty sure at this point two tables are without. I pull one of the waiters aside and ask when we will be served. His response "We don't have any adult meals. Would you like chicken tenders and mac n cheese? Sorry, that's all we have!" I'm not sure what our people did about this, but I wanted to share with all. Luckily for us we had another function to attend and two sick kids at home! I politely thanked management, and left the facility with an empty belly at 8:45pm after waiting 2 hours for food. PS: Marriott knew how many people we had coming, and were not equipped! WOW.More</t>
   </si>
   <si>
+    <t>Melisa W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r442828466-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -696,6 +759,9 @@
     <t>I'm not much of a motel fan, but this place was very good considering the price.Carrollton doesn't have a whole lot to choose from, so it's certainly the best place available.Pros: Close to motorway; walking distance to 24/7 Walmart; honest housekeeping staff.Cons: Cheap fixtures which are already coming off in the bathroom; there was hair in my shower that wasn't mine.More</t>
   </si>
   <si>
+    <t>jfosters6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r442705160-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -714,6 +780,9 @@
     <t>We live in Carrollton and had some recent home renovations done that necessitated us being out of the house for 6 days.  We watched this hotel as it was being built since our home is less than two miles away, thus we decided to give it a try.  And are we ever glad that we did.  We found an outstanding staff, nice rooms, close to restaurants, freeways, shopping, DFW Airport, and the price was right.  Definitely will recommend to future out of town guests.More</t>
   </si>
   <si>
+    <t>corycov</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r441453059-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -738,6 +807,9 @@
     <t>Took the family on our annual trip to Carrollton for Thanksgiving. Tried to book this last year but it wasn't open yet. So glad it was this year. Staff couldn't have been nicer. Front desk, bar, and room staff were super friendly. See my review on Hotels.com. Easy parking, breakfast, everything.  Room was huge and quiet. Only upgrade would be for a hot tub since it was to cold for the pool.More</t>
   </si>
   <si>
+    <t>heyp74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r439588479-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -787,6 +859,9 @@
   </si>
   <si>
     <t>This was one of the best hotels I have ever stay at. It was brand-new full of amenities the staff and service was exceptional. For the cost of the hotel we got our moneys worth plus more. I wish I could rate this Hotel 10  stars but they only give us five.More</t>
+  </si>
+  <si>
+    <t>John H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r431713718-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
@@ -818,6 +893,9 @@
 Both hospital and hotel are tall buildings easily seen from the President George Bush Expressway but the driveway to the hotel is easy to miss for lack of a sign at the entrance by the adjacent hospital. The hotel has a short sign several hundred yards from the hotel, but...I stayed in room 505 which was equipped with two queen-sized beds, a chest of drawers, two TVs, a love seat &amp; ottoman, and a coffee station.    There was also a work station and swivel chair adjacent luggage counter and drawers underneath.  The view was the Dallas skyline and the nearby Texas Health Hospital in Carrollton.   The in-room heating and cooling unit convered all noise from the expressway.  This appears to be a newer property, so my disappointments center around hospitality elements which were lacking or poorly executed. The designs were modern and great. I found someone's trash on the floor near the ottoman.  I found two reddish stains on the wall opposite the headboard. One of the drawers in the chest would not stay closed. The use of a key card for full lighting was inconvenient. The beds were nicely made up. The bathroom was in good order. The shower was hot enough, had good water pressure and it was easy to operate. In the living area, the carpeted floor was mostly free of lint and litter. In other words the goals were mostly met but there were slips. Both hospital and hotel are tall buildings easily seen from the President George Bush Expressway but the driveway to the hotel is easy to miss for lack of a sign at the entrance by the adjacent hospital. The hotel has a short sign several hundred yards from the hotel, but if you are driving without a navigation aid, you might think the entrance is further North of the hospital. I would give this hotel another try. More</t>
   </si>
   <si>
+    <t>CTaaB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r428915226-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -836,6 +914,9 @@
     <t>We were here for 3 days &amp; nights, partly for business then as part of a wedding booking. Every thing from the staff to the facility was exceptional.  The building is new so everything is fresh, clean and current. Every staff member we crossed paths with was sincerely helpful, courteous, professional, and friendly. As a business customer our room was spacious and comfortable, then as out-of-town guests for a wedding the spaciousness, cleanliness, and amenities (like the large refrigerator) made our stay very pleasant. The Bistro Staff was accommodating when we were in a hurry one morning. The hotel staff was also accommodating for various pre-wedding activities.  Additionally, there are restaurants, a large (unusually clean and stocked) Walmart, and other shopping near by. We will stay there again when in the area on business.More</t>
   </si>
   <si>
+    <t>bandman15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r425710082-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -854,6 +935,9 @@
     <t>I only stayed one night but can tell you this is one of the finest Marriott Courtyard Hotels I have visited.  It is relatively new, very clean and the service was superior to many of the hotels I have stayed in.  It is beautifully appointed in the lobby and my room was as well.  I spent a little extra to have a "downtown" view....worth it!  Even though it is on the George Bush Freeway, the traffic noise did not bother me.  I even had dinner (great burger!) in the restaurant and enjoyed a drink at the bar with "Jason" who was tending the bar and doing an excellent job.  I'll stay here again if in this area.More</t>
   </si>
   <si>
+    <t>playnmusic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r425188004-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -869,6 +953,9 @@
     <t xml:space="preserve">My husband and I stayed in a room with a king bed. There was a refrigerator microwave and coffee pot. The room was beautifully decorated and looked out over the pool on one side and over the parking lot on the other side. This was a very clean hotel and I'm a very picky customer. Outstanding! </t>
   </si>
   <si>
+    <t>Farouck-leb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r583144947-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -893,6 +980,9 @@
     <t>Staff are very friendly but hotel location is quite issolated.No buffet breakfast. And the a la carte breakfast menu is very limited ( and not extremely tasty). No onsite restaurant. There is small corner next to the reception area to purchase some snakcs and drinks. Room size is good and generally clean.I stayed there more than 3 times for business proximity.More</t>
   </si>
   <si>
+    <t>texas1946</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r578643490-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -914,6 +1004,9 @@
     <t>We stay in Marriott hotels often but haven't been in a Courtyard in years.  This hotel is great and is listed as a 3 star hotel but the rooms were as nice as many 4 stars.  You don't the robes and  some of the special amenities as in a 4-5 star but the rooms are lovely and large. They have a restaurant and a full bar and a coffee bar.  We had a made to order breakfast and it was reasonably priced and very good.  I believe there is a rate that includes breakfast so you might look in to that. The hotel is right off of the George Bush Freeway so is  very convenient.I highly recommend this property.More</t>
   </si>
   <si>
+    <t>barbara b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r576906337-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -938,6 +1031,9 @@
     <t>My folks were visiting from out-of-town (couldn't stay w/us because we are having renovations done). They chose this hotel because...well, Carrollton doesn't have many good hotels.The location (in relation to us) and ease of access is great. There is potential with the surroundings (I understand that the new restaurants will be built "shortly"). I dropped them off (helped take luggage to the room), picked them up and asked questions about their stay. We all agreed that the room and hotel (in general) were nice, clean, and very modern in decor.  Downsides:- the hotel entry looks like a side door - a large porte cache is at the entry but when you pull up...at first we thought that we were at the wrong location bc it is small - the entry at the conference center is huge- no complimentary breakfast ... there is a Starbucks in the Lobby so they did pay for coffee and a bagel breakfast- no safe in the room - thought that there would be since it was a conference center (We looked every where and eventually asked the front desk)- inconvenient link / walkway to the greenbelt walking trail near by- my folks each gave a different review of the bed comfort: one said, it was good - the other said that the bed was too soft - they were surprised at the cost of a candy bar ($3)More</t>
   </si>
   <si>
+    <t>Richard Ž</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r576009961-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1047,9 @@
   </si>
   <si>
     <t>Best hotel room I had. Room is extra large, 2 TVs , 2 sofas.Nice fitness studio with outdoor swimming pool. Located in downtown, nothing to see nearby , only many shops.Even location is not perfect, hotel is really good.</t>
+  </si>
+  <si>
+    <t>jaimehP7850HZ</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r572915986-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
@@ -1479,43 +1578,47 @@
       <c r="A2" t="n">
         <v>64841</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>126678</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1529,50 +1632,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64841</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>126679</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1586,50 +1693,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64841</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>126680</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1647,56 +1758,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64841</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>23585</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1708,47 +1823,51 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64841</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>322</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
@@ -1765,56 +1884,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64841</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>126681</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1826,56 +1949,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64841</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>57514</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1887,56 +2014,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64841</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>126682</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1948,56 +2079,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64841</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>126683</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2009,56 +2144,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64841</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>37487</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2076,56 +2215,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X11" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64841</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>126684</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2141,56 +2284,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64841</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>126685</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2202,56 +2349,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64841</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>29363</v>
+      </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2267,56 +2418,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64841</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>126686</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2328,13 +2483,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="X15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
@@ -2347,37 +2502,37 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2393,56 +2548,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64841</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>126687</v>
+      </c>
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2458,56 +2617,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64841</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>126688</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
+        <v>194</v>
+      </c>
+      <c r="K18" t="s">
+        <v>195</v>
+      </c>
+      <c r="L18" t="s">
+        <v>196</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>178</v>
       </c>
-      <c r="K18" t="s">
-        <v>179</v>
-      </c>
-      <c r="L18" t="s">
-        <v>180</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>164</v>
-      </c>
       <c r="O18" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2519,56 +2682,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64841</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>126689</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K19" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2580,56 +2747,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="X19" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Y19" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64841</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>126690</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="O20" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2641,56 +2812,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="X20" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="Y20" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64841</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>126691</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J21" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O21" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2702,56 +2877,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X21" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64841</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>106372</v>
+      </c>
+      <c r="C22" t="s">
+        <v>229</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2765,56 +2944,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X22" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y22" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64841</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>126692</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O23" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2826,56 +3009,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="X23" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64841</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>126693</v>
+      </c>
+      <c r="C24" t="s">
+        <v>247</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2891,56 +3078,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="X24" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Y24" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64841</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>126694</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="J25" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="K25" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2956,56 +3147,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="X25" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="Y25" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64841</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>126695</v>
+      </c>
+      <c r="C26" t="s">
+        <v>263</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="J26" t="s">
+        <v>266</v>
+      </c>
+      <c r="K26" t="s">
+        <v>267</v>
+      </c>
+      <c r="L26" t="s">
+        <v>268</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>242</v>
       </c>
-      <c r="K26" t="s">
-        <v>243</v>
-      </c>
-      <c r="L26" t="s">
-        <v>244</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>221</v>
-      </c>
       <c r="O26" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3017,13 +3212,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="X26" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="Y26" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
@@ -3036,37 +3231,37 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="J27" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="K27" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="L27" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="O27" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3078,56 +3273,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="X27" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="Y27" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64841</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>3346</v>
+      </c>
+      <c r="C28" t="s">
+        <v>281</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="J28" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="K28" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="L28" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3139,56 +3338,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="X28" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="Y28" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64841</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>109912</v>
+      </c>
+      <c r="C29" t="s">
+        <v>289</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="J29" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="K29" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3208,41 +3411,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64841</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>19481</v>
+      </c>
+      <c r="C30" t="s">
+        <v>296</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="J30" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="K30" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
@@ -3261,50 +3468,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64841</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>126696</v>
+      </c>
+      <c r="C31" t="s">
+        <v>303</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="J31" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="K31" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="O31" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3318,50 +3529,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64841</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>126697</v>
+      </c>
+      <c r="C32" t="s">
+        <v>309</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="J32" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="K32" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3373,56 +3588,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="X32" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="Y32" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64841</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>126698</v>
+      </c>
+      <c r="C33" t="s">
+        <v>318</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="J33" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="K33" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="L33" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="O33" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -3440,50 +3659,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64841</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>15812</v>
+      </c>
+      <c r="C34" t="s">
+        <v>326</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="J34" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="K34" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="O34" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3499,56 +3722,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="X34" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="Y34" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64841</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>126699</v>
+      </c>
+      <c r="C35" t="s">
+        <v>335</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="J35" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="K35" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="L35" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3568,50 +3795,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64841</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>126700</v>
+      </c>
+      <c r="C36" t="s">
+        <v>341</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="J36" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="K36" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="L36" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O36" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -3629,13 +3860,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="X36" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Y36" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_123.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_123.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="416">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,198 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>BrightSprite</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r605971240-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>55588</t>
+  </si>
+  <si>
+    <t>9587654</t>
+  </si>
+  <si>
+    <t>605971240</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>Great property!</t>
+  </si>
+  <si>
+    <t>We recently stayed here while visiting family. The property is extremely clean, comfortable, and welcoming. The beds and bedding are soft, comfortable, and offer great rest. The staff were all absolutely kind and pleasant to speak with. The suite we booked as enormous! It was almost the size of two standard hotel rooms!The hotel uses Verdant thermostats which, using the right Google search, can make your stay more comfortable. Also, the suite we had was near the elevator which, on a Saturday night, was noisy until 1:30am (Doors slamming, people running down the halls). On our next stay, we will probably be at the end of the hall.Great hotel and we will certainly be visiting again in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>We recently stayed here while visiting family. The property is extremely clean, comfortable, and welcoming. The beds and bedding are soft, comfortable, and offer great rest. The staff were all absolutely kind and pleasant to speak with. The suite we booked as enormous! It was almost the size of two standard hotel rooms!The hotel uses Verdant thermostats which, using the right Google search, can make your stay more comfortable. Also, the suite we had was near the elevator which, on a Saturday night, was noisy until 1:30am (Doors slamming, people running down the halls). On our next stay, we will probably be at the end of the hall.Great hotel and we will certainly be visiting again in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r590751174-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>590751174</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Delightful</t>
+  </si>
+  <si>
+    <t>Wow what an amazing stay. Pros: great staff, immaculate housekeeping, great mattresses, stunning decor (including the bubble wall). From the moment we walked in we were pleasantly greeted, and checked in within minutes. The room was spotless and comfortable, AND quiet. Great location easy on and off the highway. Surrounded by great restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Wow what an amazing stay. Pros: great staff, immaculate housekeeping, great mattresses, stunning decor (including the bubble wall). From the moment we walked in we were pleasantly greeted, and checked in within minutes. The room was spotless and comfortable, AND quiet. Great location easy on and off the highway. Surrounded by great restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r583144947-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>583144947</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>average... could find better for the same price</t>
+  </si>
+  <si>
+    <t>Staff are very friendly but hotel location is quite issolated.No buffet breakfast. And the a la carte breakfast menu is very limited ( and not extremely tasty). No onsite restaurant. There is small corner next to the reception area to purchase some snakcs and drinks. Room size is good and generally clean.I stayed there more than 3 times for business proximity.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded May 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2018</t>
+  </si>
+  <si>
+    <t>Staff are very friendly but hotel location is quite issolated.No buffet breakfast. And the a la carte breakfast menu is very limited ( and not extremely tasty). No onsite restaurant. There is small corner next to the reception area to purchase some snakcs and drinks. Room size is good and generally clean.I stayed there more than 3 times for business proximity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r578643490-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>578643490</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL AND GOOD LOCATION</t>
+  </si>
+  <si>
+    <t>We stay in Marriott hotels often but haven't been in a Courtyard in years.  This hotel is great and is listed as a 3 star hotel but the rooms were as nice as many 4 stars.  You don't the robes and  some of the special amenities as in a 4-5 star but the rooms are lovely and large. They have a restaurant and a full bar and a coffee bar.  We had a made to order breakfast and it was reasonably priced and very good.  I believe there is a rate that includes breakfast so you might look in to that. The hotel is right off of the George Bush Freeway so is  very convenient.I highly recommend this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>We stay in Marriott hotels often but haven't been in a Courtyard in years.  This hotel is great and is listed as a 3 star hotel but the rooms were as nice as many 4 stars.  You don't the robes and  some of the special amenities as in a 4-5 star but the rooms are lovely and large. They have a restaurant and a full bar and a coffee bar.  We had a made to order breakfast and it was reasonably priced and very good.  I believe there is a rate that includes breakfast so you might look in to that. The hotel is right off of the George Bush Freeway so is  very convenient.I highly recommend this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r576906337-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>576906337</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>My folks were visiting from out-of-town (couldn't stay w/us because we are having renovations done). They chose this hotel because...well, Carrollton doesn't have many good hotels.The location (in relation to us) and ease of access is great. There is potential with the surroundings (I understand that the new restaurants will be built "shortly"). I dropped them off (helped take luggage to the room), picked them up and asked questions about their stay. We all agreed that the room and hotel (in general) were nice, clean, and very modern in decor.  Downsides:- the hotel entry looks like a side door - a large porte cache is at the entry but when you pull up...at first we thought that we were at the wrong location bc it is small - the entry at the conference center is huge- no complimentary breakfast ... there is a Starbucks in the Lobby so they did pay for coffee and a bagel breakfast- no safe in the room - thought that there would be since it was a conference center (We looked every where and eventually asked the front desk)- inconvenient link / walkway to the greenbelt walking trail near by- my folks each gave a different review of the bed comfort: one said, it was good - the other said that the bed was too soft - they were surprised at the cost of a candy bar ($3)MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>My folks were visiting from out-of-town (couldn't stay w/us because we are having renovations done). They chose this hotel because...well, Carrollton doesn't have many good hotels.The location (in relation to us) and ease of access is great. There is potential with the surroundings (I understand that the new restaurants will be built "shortly"). I dropped them off (helped take luggage to the room), picked them up and asked questions about their stay. We all agreed that the room and hotel (in general) were nice, clean, and very modern in decor.  Downsides:- the hotel entry looks like a side door - a large porte cache is at the entry but when you pull up...at first we thought that we were at the wrong location bc it is small - the entry at the conference center is huge- no complimentary breakfast ... there is a Starbucks in the Lobby so they did pay for coffee and a bagel breakfast- no safe in the room - thought that there would be since it was a conference center (We looked every where and eventually asked the front desk)- inconvenient link / walkway to the greenbelt walking trail near by- my folks each gave a different review of the bed comfort: one said, it was good - the other said that the bed was too soft - they were surprised at the cost of a candy bar ($3)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r576009961-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>576009961</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>This hotel is awesome.</t>
+  </si>
+  <si>
+    <t>Best hotel room I had. Room is extra large, 2 TVs , 2 sofas.Nice fitness studio with outdoor swimming pool. Located in downtown, nothing to see nearby , only many shops.Even location is not perfect, hotel is really good.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r572915986-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>572915986</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Very nice stay.</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel when traveling to Carrollton to buy a car.  We selected this hotel for it's location and great reviews.  We were not disappointed.  The hotel is fairly new and the rooms are very modern and beautiful. The location of the hotel is very quiet and great Korean food is located just about a half mile away.  There are also many other stores in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel when traveling to Carrollton to buy a car.  We selected this hotel for it's location and great reviews.  We were not disappointed.  The hotel is fairly new and the rooms are very modern and beautiful. The location of the hotel is very quiet and great Korean food is located just about a half mile away.  There are also many other stores in the area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r568778392-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
-    <t>55588</t>
-  </si>
-  <si>
-    <t>9587654</t>
-  </si>
-  <si>
     <t>568778392</t>
   </si>
   <si>
@@ -177,15 +354,6 @@
     <t>Great stay! Nice rooms. Bistro has good fare and small bar.  Would highly recommend for anyone but especially business travelers.  Only negative is that breakfast and coffee are not included in price.  There are coffee makers in the room though and a mini fridge. Really liked the property!</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>sonyaj68</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r562292861-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -201,15 +369,9 @@
     <t>I was concerned when I arrived around 3 and they had no rooms ready. I waited in the lobby until room was ready (4’ish), then when I got to the room I couldn’t get the lights to turn on. It was raining so no light coming in from the window.  By using the flashlight on my phone I finally found that you have to put one of the room keys in a slot by the door to make the room electricity to work. Fortunately these were the only negative points of my stay. This is a modern facility. There are literally electric outlets everywhere. The room was very comfortable. The bathroom and shower had great shelving which I love. It was handy that the room had a mini fridge and microwave. All of the staff I encountered were very friendly and helpful. The restaurant (note - not open at lunch) is pretty good. There are lots of restaurants fairly close but not walking distance. I recommend this hotel. MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>I was concerned when I arrived around 3 and they had no rooms ready. I waited in the lobby until room was ready (4’ish), then when I got to the room I couldn’t get the lights to turn on. It was raining so no light coming in from the window.  By using the flashlight on my phone I finally found that you have to put one of the room keys in a slot by the door to make the room electricity to work. Fortunately these were the only negative points of my stay. This is a modern facility. There are literally electric outlets everywhere. The room was very comfortable. The bathroom and shower had great shelving which I love. It was handy that the room had a mini fridge and microwave. All of the staff I encountered were very friendly and helpful. The restaurant (note - not open at lunch) is pretty good. There are lots of restaurants fairly close but not walking distance. I recommend this hotel. More</t>
   </si>
   <si>
-    <t>Veronica32801</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r539789520-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -237,9 +399,6 @@
     <t>I travel a bunch for work, so it's takes a lot to impress me.  I was very happy with my stay at the Marriott Courtyard.  Was greeted by a very nice employee when I arrived and headed to my room.  The hotel is VERY nicely updated - the lobby area had couches with outlets on them!  This was a very exciting feature for me!  I'm always needing/wanting to plug in my laptop or phone, so this was an impressive renovation for me.  My room was also nicely updated - AWESOME SHOWER.  Again, it's the little things that matter.  I highly recommend this hotel - reasonably priced and very nicely updated.  they did a great job.More</t>
   </si>
   <si>
-    <t>AKjay7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r539729956-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -261,9 +420,6 @@
     <t>This hotel has a great location. Just off the freeway, easy access in all directions. Has a restaurant but also close to many many other restaurants, Walmart, Walgreens and a mall. In traffic it took me 20 min to get downtown to the JFK museum and grassy Knoll. Will definitely stay here again. Fast internet, comfy bed and large circular couch. Microwave, fridge and coffee maker, pool. More</t>
   </si>
   <si>
-    <t>David H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r537098336-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -288,9 +444,6 @@
     <t>We decided to head to Dallas to visit my college roommate and his wife.  We wanted to stay close to their home and found this hotel on tripadvisor with very good ratings.  We were not disappointed.   The staff was extremely friendly and helpful.  We were pleasantly greeted and as a rewards member we were given our choice of floors to stay on.  The room was well kept, clean and very comfortable.  I especially liked the upgraded electrical outlets with usb support for charging items.   The only thing I did not like were the pillows, they were not very supportive, but the bed itself was very comfortable.  Nice shower and again everything was very clean.  Nice bar area as well, with sections for individuals to sit and watch televisions on a small screen.   Parking was very easy and it was in a great location for our trip.   I would highly recommend this hotel.More</t>
   </si>
   <si>
-    <t>Momo806</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r534760301-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -309,15 +462,9 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Very friendly and helpful staff we had a issuse with our debit card and the staff helped us out and when we got to the room u was amazed at the bathroom. Very comfortable bed and clean rooms. Will definitely be back.More</t>
   </si>
   <si>
-    <t>laddiebuck</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r507130103-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -333,9 +480,6 @@
     <t>This hotel is relatively new and has all the new courtyard features. Excellent bed and rooms. Nice walk in shower, flat screen T.V.with internet for netflix,hulu,etc.Lobby is the new style with bistro.Bistro has limited hours.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded August 1, 2017</t>
   </si>
   <si>
@@ -345,9 +489,6 @@
     <t>This hotel is relatively new and has all the new courtyard features. Excellent bed and rooms. Nice walk in shower, flat screen T.V.with internet for netflix,hulu,etc.Lobby is the new style with bistro.Bistro has limited hours.More</t>
   </si>
   <si>
-    <t>Yudansha2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r502484988-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -375,9 +516,6 @@
     <t>Modern, clean and excellent service. This will be my hotel of choice for future trips to the area. Close to a wide variety of restaurants and amenities such as grocery stores and largest shopping centres. More</t>
   </si>
   <si>
-    <t>Cypressman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r501054952-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -402,9 +540,6 @@
     <t>Overall pleased with the property. Fairly easy to get off and on freeway.  Plenty shopping and restaurant choices. Safe area.  Hotel was very clean, friendly staff and plenty parking.  I would have rated higher if property had a hot tub.More</t>
   </si>
   <si>
-    <t>Raymond S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r495005410-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -423,7 +558,130 @@
     <t>Upon first site, you know that it is a new hotel. The hotel has been open for one year and has more to offer than most hotels. It had a pool, cafe and a fitness center with treadmills, ellipticals etc. The rooms was really nice, but one thing I would change is the refrigerator. It only cools for 2 hours, so I had to keep pushing the button for it to cool in the morning, after I got back for our daily sightseeing and before I went to bed. I'm diabetic, so my insulin has to be refrigerated at all times. Even the sodas and water I had in there wasn't as cold as it should be. While I was there, one of the elevators wasn't working and there was a wedding going on, so it took awhile for the elevator to get from floor to floor with hundreds a guest staying there. Other than that, I would stay there again.More</t>
   </si>
   <si>
-    <t>SWsalesGuy</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r494699605-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>494699605</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Celebrating 60 Years</t>
+  </si>
+  <si>
+    <t>We stayed at the Marriott Courtyard in Carrollton, TX.  I stayed there last year and had a great time.  This time it was just so, so but it had nothing to do with the property, it was the bar staff.  The staff last year went above and beyond to make our stay GREAT.  Too bad they no longer work there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at the Marriott Courtyard in Carrollton, TX.  I stayed there last year and had a great time.  This time it was just so, so but it had nothing to do with the property, it was the bar staff.  The staff last year went above and beyond to make our stay GREAT.  Too bad they no longer work there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r484764679-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>484764679</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Great rooms &amp; super comfy beds</t>
+  </si>
+  <si>
+    <t>I'll tell ya, my favorite girls weekend is one where we are back at the hotel and tucked into bed by 9PM. The beds here are super comfortable, AC isn't too loud, TV wasn't too big, and the door to the bathroom was heavy enough that i didn't have to listen to everyone pee. All these things are a plus for me. Only downside was the mini-fridge didn't get very cold and was exceptionally mini. Otherwise great hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>I'll tell ya, my favorite girls weekend is one where we are back at the hotel and tucked into bed by 9PM. The beds here are super comfortable, AC isn't too loud, TV wasn't too big, and the door to the bathroom was heavy enough that i didn't have to listen to everyone pee. All these things are a plus for me. Only downside was the mini-fridge didn't get very cold and was exceptionally mini. Otherwise great hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r482365959-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>482365959</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Modern international hotel</t>
+  </si>
+  <si>
+    <t>A very modern, clean and safe place to stay.  I like the early morning cafe.  Nice to have a hot breakfast option.  Pool was clean and attractive.  The downsides are its not close to attractions and need a car.  Also the cafe does not offer lunch. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>A very modern, clean and safe place to stay.  I like the early morning cafe.  Nice to have a hot breakfast option.  Pool was clean and attractive.  The downsides are its not close to attractions and need a car.  Also the cafe does not offer lunch. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r477143949-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>477143949</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Clean, bright &amp; new</t>
+  </si>
+  <si>
+    <t>Great experience overall. Room was very clean. Service was good. Decor in rooms is bright and light. We were there one night and would have happily stayed longer. Very much what you expect from the Courtyard Marriott brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Great experience overall. Room was very clean. Service was good. Decor in rooms is bright and light. We were there one night and would have happily stayed longer. Very much what you expect from the Courtyard Marriott brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r475800004-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>475800004</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Great hotel. The rooms are nice and comfortable. The front desk staff is very friendly and greets you each time you walk in the door. Large lobby area with comfortable seating. They also have a full bar in the lobby areaMoreShow less</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel. The rooms are nice and comfortable. The front desk staff is very friendly and greets you each time you walk in the door. Large lobby area with comfortable seating. They also have a full bar in the lobby areaMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r475652606-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
@@ -441,21 +699,9 @@
     <t>Stayed one night on a recent business trip to Carrolton. Hotel is new with lots of parking. Checked easily. Room was nice since it was new. King sized bed, lots of power outlet. Internet was slow. Small couch, coffee maker and fridge. Walk in shower. AC was from an individual machine in the room that was a little noisy. Might be an issue when the AC gets older or if you are a light sleeper. Fitness area has a few cardo machines and free weights. Pool on site but I didn’t look at it. Paid breakfast that had everything from oatmeal to eggs. I would stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
-    <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded April 18, 2017</t>
-  </si>
-  <si>
-    <t>Responded April 18, 2017</t>
-  </si>
-  <si>
     <t>Stayed one night on a recent business trip to Carrolton. Hotel is new with lots of parking. Checked easily. Room was nice since it was new. King sized bed, lots of power outlet. Internet was slow. Small couch, coffee maker and fridge. Walk in shower. AC was from an individual machine in the room that was a little noisy. Might be an issue when the AC gets older or if you are a light sleeper. Fitness area has a few cardo machines and free weights. Pool on site but I didn’t look at it. Paid breakfast that had everything from oatmeal to eggs. I would stay here again.More</t>
   </si>
   <si>
-    <t>Grant Park Fam C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r468374911-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -474,9 +720,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded March 20, 2017</t>
   </si>
   <si>
@@ -486,9 +729,6 @@
     <t>Solid courtyard - Newish, clean, good coffee bar, friendly staff, good service, close to the highway, downtown restaurants, and good hot shower.The room has a pull out small sofa that is new, clean, and likely never used - perfect for our two year old.  We had enough room for the pullout sofa, king bed, &amp; a travel cot the hotel supplied for our infant.  One other bonus - the rooms are super air tight quiet!  So quiet in fact, we overslept every single day!!  Added unintended BONUS!More</t>
   </si>
   <si>
-    <t>Brian A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r466970798-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -513,9 +753,6 @@
     <t>I have stayed at several Marriott Courtyards recently and the Carrollton location is excellent. Great friendly staff and willing to assist you in your needs when you have lost your cork screw! Nicely appointed rooms, comfortable beds and a huge shower. Lots of restaurants in the area and a little shopping.More</t>
   </si>
   <si>
-    <t>MortgageWino</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r465653381-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -564,9 +801,6 @@
     <t>Stayed twice now - was upgrade to a nice suite o the second visit.  Lobby is cool, lots of tvs, spaces to hand out, different format seating.  Typical Courtyard food (good beer selection!).  Room was very nice, clean, modern, and brand new shape.  My local choice of places to stay.More</t>
   </si>
   <si>
-    <t>TGuan863</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r464092433-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -579,7 +813,7 @@
     <t>Newest hotel in the area, Poor Service, Poor details!</t>
   </si>
   <si>
-    <t>Where do I start? This hotel is less than a year old. Great location, next to the highway, and it is a Courtyard, so it is more modern, a touch of an upscale feel to it, but not this place. We drove in around 7 pm, and no bellhop. Not that we needed one, but we are accustomed to being greeted by one. There were barely 30 vehicles in the whole lot, so we're thinking to ourselves: "This is a new hotel, maybe it's not known yet, and we can maybe get an upgrade". So I walk in, introduce myself, and start the check in process. During the check in process, I asked if there were any complimentary upgrades, and the representatives said that there were none available. I even asked if since I was a Marriott program holder. Nothing. With less than 30 cars, no room upgrades in this new place. Disappointment. Next thing, we checked into our room and started to settle in. The restroom had a few noticeable issues. Nothing the would inconvenience us, but details in the workmanship and the details that stand out that would make the difference between a Marriott vs an off-brand inn. Pictures will show how the shower walls were peeling off, a shower decorative piece was detaching from the wall and a detail that is typically not shown in upscale hotels - the toilet paper wrapper still on it - showing...Where do I start? This hotel is less than a year old. Great location, next to the highway, and it is a Courtyard, so it is more modern, a touch of an upscale feel to it, but not this place. We drove in around 7 pm, and no bellhop. Not that we needed one, but we are accustomed to being greeted by one. There were barely 30 vehicles in the whole lot, so we're thinking to ourselves: "This is a new hotel, maybe it's not known yet, and we can maybe get an upgrade". So I walk in, introduce myself, and start the check in process. During the check in process, I asked if there were any complimentary upgrades, and the representatives said that there were none available. I even asked if since I was a Marriott program holder. Nothing. With less than 30 cars, no room upgrades in this new place. Disappointment. Next thing, we checked into our room and started to settle in. The restroom had a few noticeable issues. Nothing the would inconvenience us, but details in the workmanship and the details that stand out that would make the difference between a Marriott vs an off-brand inn. Pictures will show how the shower walls were peeling off, a shower decorative piece was detaching from the wall and a detail that is typically not shown in upscale hotels - the toilet paper wrapper still on it - showing it's brand. Not that the brand matters, but these are minor details that start to add up. We left right afterward for dinner. When we came back, it roughly around 930 pm. We called for a few things such as shampoo, conditioner, etc. The reply that we got were along the lines of "We're a little busy right now, I will try to get it to you, but I'm by myself right now". I hung up, and was so appalled. I have never heard of anything like this in the many times we've traveled. After about 30 minutes, we were greeted at the door with the item's that I requested. We are appreciative. Rooms were nicely decorated, TV swivels out, low-speed internet is complimentary (~2-5 Mbps), my hotspot was faster than that. bed was comfy, but pillows could use some touch. The final thing we have to say about the room is the quality of cleaning they do. It is quite disgusting when we find something from the previous guest in an obvious place. While we are packing our belongings, we typically do a good run down on the room. We expect nothing or close to it in the obvious places, drawers, net to the bed, night stands, etc. Well, we were stunned when we found used socks next to the bed. This speaks volume...MoreShow less</t>
+    <t>Where do I start? This hotel is less than a year old. Great location, next to the highway, and it is a Courtyard, so it is more modern, a touch of an upscale feel to it, but not this place. We drove in around 7 pm, and no bellhop. Not that we needed one, but we are accustomed to being greeted by one. There were barely 30 vehicles in the whole lot, so we're thinking to ourselves: "This is a new hotel, maybe it's not known yet, and we can maybe get an upgrade". So I walk in, introduce myself, and start the check in process. During the check in process, I asked if there were any complimentary upgrades, and the representatives said that there were none available. I even asked if since I was a Marriott program holder. Nothing. With less than 30 cars, no room upgrades in this new place. Disappointment. Next thing, we checked into our room and started to settle in. The restroom had a few noticeable issues. Nothing the would inconvenience us, but details in the workmanship and the details that stand out that would make the difference between a Marriott vs an off-brand inn. Pictures will show how the shower walls were peeling off, a shower decorative piece was detaching from the wall and a detail that is typically not shown in upscale hotels - the toilet paper wrapper still on it - showing...Where do I start? This hotel is less than a year old. Great location, next to the highway, and it is a Courtyard, so it is more modern, a touch of an upscale feel to it, but not this place. We drove in around 7 pm, and no bellhop. Not that we needed one, but we are accustomed to being greeted by one. There were barely 30 vehicles in the whole lot, so we're thinking to ourselves: "This is a new hotel, maybe it's not known yet, and we can maybe get an upgrade". So I walk in, introduce myself, and start the check in process. During the check in process, I asked if there were any complimentary upgrades, and the representatives said that there were none available. I even asked if since I was a Marriott program holder. Nothing. With less than 30 cars, no room upgrades in this new place. Disappointment. Next thing, we checked into our room and started to settle in. The restroom had a few noticeable issues. Nothing the would inconvenience us, but details in the workmanship and the details that stand out that would make the difference between a Marriott vs an off-brand inn. Pictures will show how the shower walls were peeling off, a shower decorative piece was detaching from the wall and a detail that is typically not shown in upscale hotels - the toilet paper wrapper still on it - showing it's brand. Not that the brand matters, but these are minor details that start to add up. We left right afterward for dinner. When we came back, it roughly around 930 pm. We called for a few things such as shampoo, conditioner, etc. The reply that we got were along the lines of "We're a little busy right now, I will try to get it to you, but I'm by myself right now". I hung up, and was so appalled. I have never heard of anything like this in the many times we've traveled. After about 30 minutes, we were greeted at the door with the item's that I requested. We are appreciative. Rooms were nicely decorated, TV swivels out, low-speed internet is complimentary (~2-5 Mbps), my hotspot was faster than that. bed was comfy, but pillows could use some touch. The final thing we have to say about the room is the quality of cleaning they do. It is quite disgusting when we find something from the previous guest in an obvious place. While we are packing our belongings, we typically do a good run down on the room. We expect nothing or close to it in the obvious places, drawers, net to the bed, night stands, etc. Well, we were stunned when we found used socks next to the bed. This speaks volume when it comes to the efforts, quality and dedication to standards at Marriott. Overall, we liked the hotel, not the details and cleanliness of the room. The convenience of the hotel's location is what we are drawn to. During checkout, we were greeted with another representative. She was a bit better. However, she was also a bit rough around the edges. I was handed the invoice but had a certain amount credited towards my account. I asked what this was, and I was redirected to call the Marriott 800 number. It is because of this service that leaves a bitter taste on our palate. We would be back but will expect less.MoreShow less</t>
   </si>
   <si>
     <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded March 3, 2017</t>
@@ -588,10 +822,7 @@
     <t>Responded March 3, 2017</t>
   </si>
   <si>
-    <t>Where do I start? This hotel is less than a year old. Great location, next to the highway, and it is a Courtyard, so it is more modern, a touch of an upscale feel to it, but not this place. We drove in around 7 pm, and no bellhop. Not that we needed one, but we are accustomed to being greeted by one. There were barely 30 vehicles in the whole lot, so we're thinking to ourselves: "This is a new hotel, maybe it's not known yet, and we can maybe get an upgrade". So I walk in, introduce myself, and start the check in process. During the check in process, I asked if there were any complimentary upgrades, and the representatives said that there were none available. I even asked if since I was a Marriott program holder. Nothing. With less than 30 cars, no room upgrades in this new place. Disappointment. Next thing, we checked into our room and started to settle in. The restroom had a few noticeable issues. Nothing the would inconvenience us, but details in the workmanship and the details that stand out that would make the difference between a Marriott vs an off-brand inn. Pictures will show how the shower walls were peeling off, a shower decorative piece was detaching from the wall and a detail that is typically not shown in upscale hotels - the toilet paper wrapper still on it - showing...Where do I start? This hotel is less than a year old. Great location, next to the highway, and it is a Courtyard, so it is more modern, a touch of an upscale feel to it, but not this place. We drove in around 7 pm, and no bellhop. Not that we needed one, but we are accustomed to being greeted by one. There were barely 30 vehicles in the whole lot, so we're thinking to ourselves: "This is a new hotel, maybe it's not known yet, and we can maybe get an upgrade". So I walk in, introduce myself, and start the check in process. During the check in process, I asked if there were any complimentary upgrades, and the representatives said that there were none available. I even asked if since I was a Marriott program holder. Nothing. With less than 30 cars, no room upgrades in this new place. Disappointment. Next thing, we checked into our room and started to settle in. The restroom had a few noticeable issues. Nothing the would inconvenience us, but details in the workmanship and the details that stand out that would make the difference between a Marriott vs an off-brand inn. Pictures will show how the shower walls were peeling off, a shower decorative piece was detaching from the wall and a detail that is typically not shown in upscale hotels - the toilet paper wrapper still on it - showing it's brand. Not that the brand matters, but these are minor details that start to add up. We left right afterward for dinner. When we came back, it roughly around 930 pm. We called for a few things such as shampoo, conditioner, etc. The reply that we got were along the lines of "We're a little busy right now, I will try to get it to you, but I'm by myself right now". I hung up, and was so appalled. I have never heard of anything like this in the many times we've traveled. After about 30 minutes, we were greeted at the door with the item's that I requested. We are appreciative. Rooms were nicely decorated, TV swivels out, low-speed internet is complimentary (~2-5 Mbps), my hotspot was faster than that. bed was comfy, but pillows could use some touch. The final thing we have to say about the room is the quality of cleaning they do. It is quite disgusting when we find something from the previous guest in an obvious place. While we are packing our belongings, we typically do a good run down on the room. We expect nothing or close to it in the obvious places, drawers, net to the bed, night stands, etc. Well, we were stunned when we found used socks next to the bed. This speaks volume...More</t>
-  </si>
-  <si>
-    <t>MeliMel11</t>
+    <t>Where do I start? This hotel is less than a year old. Great location, next to the highway, and it is a Courtyard, so it is more modern, a touch of an upscale feel to it, but not this place. We drove in around 7 pm, and no bellhop. Not that we needed one, but we are accustomed to being greeted by one. There were barely 30 vehicles in the whole lot, so we're thinking to ourselves: "This is a new hotel, maybe it's not known yet, and we can maybe get an upgrade". So I walk in, introduce myself, and start the check in process. During the check in process, I asked if there were any complimentary upgrades, and the representatives said that there were none available. I even asked if since I was a Marriott program holder. Nothing. With less than 30 cars, no room upgrades in this new place. Disappointment. Next thing, we checked into our room and started to settle in. The restroom had a few noticeable issues. Nothing the would inconvenience us, but details in the workmanship and the details that stand out that would make the difference between a Marriott vs an off-brand inn. Pictures will show how the shower walls were peeling off, a shower decorative piece was detaching from the wall and a detail that is typically not shown in upscale hotels - the toilet paper wrapper still on it - showing...Where do I start? This hotel is less than a year old. Great location, next to the highway, and it is a Courtyard, so it is more modern, a touch of an upscale feel to it, but not this place. We drove in around 7 pm, and no bellhop. Not that we needed one, but we are accustomed to being greeted by one. There were barely 30 vehicles in the whole lot, so we're thinking to ourselves: "This is a new hotel, maybe it's not known yet, and we can maybe get an upgrade". So I walk in, introduce myself, and start the check in process. During the check in process, I asked if there were any complimentary upgrades, and the representatives said that there were none available. I even asked if since I was a Marriott program holder. Nothing. With less than 30 cars, no room upgrades in this new place. Disappointment. Next thing, we checked into our room and started to settle in. The restroom had a few noticeable issues. Nothing the would inconvenience us, but details in the workmanship and the details that stand out that would make the difference between a Marriott vs an off-brand inn. Pictures will show how the shower walls were peeling off, a shower decorative piece was detaching from the wall and a detail that is typically not shown in upscale hotels - the toilet paper wrapper still on it - showing it's brand. Not that the brand matters, but these are minor details that start to add up. We left right afterward for dinner. When we came back, it roughly around 930 pm. We called for a few things such as shampoo, conditioner, etc. The reply that we got were along the lines of "We're a little busy right now, I will try to get it to you, but I'm by myself right now". I hung up, and was so appalled. I have never heard of anything like this in the many times we've traveled. After about 30 minutes, we were greeted at the door with the item's that I requested. We are appreciative. Rooms were nicely decorated, TV swivels out, low-speed internet is complimentary (~2-5 Mbps), my hotspot was faster than that. bed was comfy, but pillows could use some touch. The final thing we have to say about the room is the quality of cleaning they do. It is quite disgusting when we find something from the previous guest in an obvious place. While we are packing our belongings, we typically do a good run down on the room. We expect nothing or close to it in the obvious places, drawers, net to the bed, night stands, etc. Well, we were stunned when we found used socks next to the bed. This speaks volume when it comes to the efforts, quality and dedication to standards at Marriott. Overall, we liked the hotel, not the details and cleanliness of the room. The convenience of the hotel's location is what we are drawn to. During checkout, we were greeted with another representative. She was a bit better. However, she was also a bit rough around the edges. I was handed the invoice but had a certain amount credited towards my account. I asked what this was, and I was redirected to call the Marriott 800 number. It is because of this service that leaves a bitter taste on our palate. We would be back but will expect less.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r460782218-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
@@ -618,9 +849,6 @@
     <t>This was my second stay in 5 months. Will stay again.  Close to Spa Castle &amp; grocery store.  Multiple restaurant options.  Uber available. Made to order breakfast was excellent.  Was too cold for the pool this time, but enjoyed drinking a glass of wine by the hug firepit. Staff was very friendly. Rooms very spacious &amp; clean.More</t>
   </si>
   <si>
-    <t>jetreaux</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r457478816-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -645,9 +873,6 @@
     <t>Everything was perfect, check in, room, made to order breakfast,  checkout.  One of the best stays while traveling for work ,  ever.  Lighting in the room was these of any hotel I have ever stayed in.   Great staff too.More</t>
   </si>
   <si>
-    <t>Nik3300</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r450305987-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -675,9 +900,6 @@
     <t>What I first noticed when we walked in was how nice and bright the lights were. Usually, rooms are dim but the nice white lights and plenty of outlets for electronics were a plus. The room was clean and spacious. Beds were very comfortable and soft. Bathroom is good size and also clean. Staff very friendly. Will be back when in the area. More</t>
   </si>
   <si>
-    <t>jdkrup77</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r445049889-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -705,9 +927,6 @@
     <t>My wife and I decided to stay here as we were going to be in town one day and am very familiar with the neighborhood.  I booked the room online and for $100 a night it was a great value.  This hotel is brand new and well designed.  They have a hotel bar and a bistro that is a nice touch for a budget minded hotel.  The room details were very well designed and beds were very comfortable.  About the only possible improvement we could see would be to add a hot tub.  Great location for those looking at hanging around north Dallas and close to DFW airport.  I would definitely recommend the Courtyard in Carrollton.More</t>
   </si>
   <si>
-    <t>steelcity1704</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r443884920-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -726,9 +945,6 @@
     <t>I cant rate the hotel. Lobby was very, very nice. I noticed a full bar walking in!! they also have a Conference Center. Here comes the BAD part. I highly recommend not having your Christmas Party here. It could've been a fluke, could be because it's new, but I'm guessing not. Our party started at 6. I arrived at 6:05 with part of my family. Our salads were on the table. Rented DJ doing his thing. Good times?? Nope! 7 pm came, CEO came by to say hi. He then pondered and asked, I wonder where our dinner is? 5 Minutes later, DJ announces dinner will be served at 7:30. 8pm comes and goes, no dinner, no announcement. I think around 8:15 we start to waiters and plates with silver covers!!! Yeah!! Kids meals are coming out, some adult meals slowly but surely coming out as well. Our table watches others be served, and we're sure we're next. NOPE, they all disappear. A few stragglers here and there, meaning meals here and there to the other tables. I'm pretty sure at this point two tables are without. I pull one of the waiters aside and ask when we will be served. His response "We don't have any adult meals. Would you like chicken tenders and mac n cheese? Sorry, that's all we have!" I'm not sure what our people did about this, but I wanted to share with all. Luckily...I cant rate the hotel. Lobby was very, very nice. I noticed a full bar walking in!! they also have a Conference Center. Here comes the BAD part. I highly recommend not having your Christmas Party here. It could've been a fluke, could be because it's new, but I'm guessing not. Our party started at 6. I arrived at 6:05 with part of my family. Our salads were on the table. Rented DJ doing his thing. Good times?? Nope! 7 pm came, CEO came by to say hi. He then pondered and asked, I wonder where our dinner is? 5 Minutes later, DJ announces dinner will be served at 7:30. 8pm comes and goes, no dinner, no announcement. I think around 8:15 we start to waiters and plates with silver covers!!! Yeah!! Kids meals are coming out, some adult meals slowly but surely coming out as well. Our table watches others be served, and we're sure we're next. NOPE, they all disappear. A few stragglers here and there, meaning meals here and there to the other tables. I'm pretty sure at this point two tables are without. I pull one of the waiters aside and ask when we will be served. His response "We don't have any adult meals. Would you like chicken tenders and mac n cheese? Sorry, that's all we have!" I'm not sure what our people did about this, but I wanted to share with all. Luckily for us we had another function to attend and two sick kids at home! I politely thanked management, and left the facility with an empty belly at 8:45pm after waiting 2 hours for food. PS: Marriott knew how many people we had coming, and were not equipped! WOW.More</t>
   </si>
   <si>
-    <t>Melisa W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r442828466-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -759,9 +975,6 @@
     <t>I'm not much of a motel fan, but this place was very good considering the price.Carrollton doesn't have a whole lot to choose from, so it's certainly the best place available.Pros: Close to motorway; walking distance to 24/7 Walmart; honest housekeeping staff.Cons: Cheap fixtures which are already coming off in the bathroom; there was hair in my shower that wasn't mine.More</t>
   </si>
   <si>
-    <t>jfosters6</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r442705160-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -780,9 +993,6 @@
     <t>We live in Carrollton and had some recent home renovations done that necessitated us being out of the house for 6 days.  We watched this hotel as it was being built since our home is less than two miles away, thus we decided to give it a try.  And are we ever glad that we did.  We found an outstanding staff, nice rooms, close to restaurants, freeways, shopping, DFW Airport, and the price was right.  Definitely will recommend to future out of town guests.More</t>
   </si>
   <si>
-    <t>corycov</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r441453059-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -807,9 +1017,6 @@
     <t>Took the family on our annual trip to Carrollton for Thanksgiving. Tried to book this last year but it wasn't open yet. So glad it was this year. Staff couldn't have been nicer. Front desk, bar, and room staff were super friendly. See my review on Hotels.com. Easy parking, breakfast, everything.  Room was huge and quiet. Only upgrade would be for a hot tub since it was to cold for the pool.More</t>
   </si>
   <si>
-    <t>heyp74</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r439588479-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -859,9 +1066,6 @@
   </si>
   <si>
     <t>This was one of the best hotels I have ever stay at. It was brand-new full of amenities the staff and service was exceptional. For the cost of the hotel we got our moneys worth plus more. I wish I could rate this Hotel 10  stars but they only give us five.More</t>
-  </si>
-  <si>
-    <t>John H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r431713718-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
@@ -893,9 +1097,6 @@
 Both hospital and hotel are tall buildings easily seen from the President George Bush Expressway but the driveway to the hotel is easy to miss for lack of a sign at the entrance by the adjacent hospital. The hotel has a short sign several hundred yards from the hotel, but...I stayed in room 505 which was equipped with two queen-sized beds, a chest of drawers, two TVs, a love seat &amp; ottoman, and a coffee station.    There was also a work station and swivel chair adjacent luggage counter and drawers underneath.  The view was the Dallas skyline and the nearby Texas Health Hospital in Carrollton.   The in-room heating and cooling unit convered all noise from the expressway.  This appears to be a newer property, so my disappointments center around hospitality elements which were lacking or poorly executed. The designs were modern and great. I found someone's trash on the floor near the ottoman.  I found two reddish stains on the wall opposite the headboard. One of the drawers in the chest would not stay closed. The use of a key card for full lighting was inconvenient. The beds were nicely made up. The bathroom was in good order. The shower was hot enough, had good water pressure and it was easy to operate. In the living area, the carpeted floor was mostly free of lint and litter. In other words the goals were mostly met but there were slips. Both hospital and hotel are tall buildings easily seen from the President George Bush Expressway but the driveway to the hotel is easy to miss for lack of a sign at the entrance by the adjacent hospital. The hotel has a short sign several hundred yards from the hotel, but if you are driving without a navigation aid, you might think the entrance is further North of the hospital. I would give this hotel another try. More</t>
   </si>
   <si>
-    <t>CTaaB</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r428915226-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -914,9 +1115,6 @@
     <t>We were here for 3 days &amp; nights, partly for business then as part of a wedding booking. Every thing from the staff to the facility was exceptional.  The building is new so everything is fresh, clean and current. Every staff member we crossed paths with was sincerely helpful, courteous, professional, and friendly. As a business customer our room was spacious and comfortable, then as out-of-town guests for a wedding the spaciousness, cleanliness, and amenities (like the large refrigerator) made our stay very pleasant. The Bistro Staff was accommodating when we were in a hurry one morning. The hotel staff was also accommodating for various pre-wedding activities.  Additionally, there are restaurants, a large (unusually clean and stocked) Walmart, and other shopping near by. We will stay there again when in the area on business.More</t>
   </si>
   <si>
-    <t>bandman15</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r425710082-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -935,9 +1133,6 @@
     <t>I only stayed one night but can tell you this is one of the finest Marriott Courtyard Hotels I have visited.  It is relatively new, very clean and the service was superior to many of the hotels I have stayed in.  It is beautifully appointed in the lobby and my room was as well.  I spent a little extra to have a "downtown" view....worth it!  Even though it is on the George Bush Freeway, the traffic noise did not bother me.  I even had dinner (great burger!) in the restaurant and enjoyed a drink at the bar with "Jason" who was tending the bar and doing an excellent job.  I'll stay here again if in this area.More</t>
   </si>
   <si>
-    <t>playnmusic</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r425188004-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -953,127 +1148,132 @@
     <t xml:space="preserve">My husband and I stayed in a room with a king bed. There was a refrigerator microwave and coffee pot. The room was beautifully decorated and looked out over the pool on one side and over the parking lot on the other side. This was a very clean hotel and I'm a very picky customer. Outstanding! </t>
   </si>
   <si>
-    <t>Farouck-leb</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r583144947-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
-  </si>
-  <si>
-    <t>583144947</t>
-  </si>
-  <si>
-    <t>05/27/2018</t>
-  </si>
-  <si>
-    <t>average... could find better for the same price</t>
-  </si>
-  <si>
-    <t>Staff are very friendly but hotel location is quite issolated.No buffet breakfast. And the a la carte breakfast menu is very limited ( and not extremely tasty). No onsite restaurant. There is small corner next to the reception area to purchase some snakcs and drinks. Room size is good and generally clean.I stayed there more than 3 times for business proximity.MoreShow less</t>
-  </si>
-  <si>
-    <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
-  </si>
-  <si>
-    <t>Staff are very friendly but hotel location is quite issolated.No buffet breakfast. And the a la carte breakfast menu is very limited ( and not extremely tasty). No onsite restaurant. There is small corner next to the reception area to purchase some snakcs and drinks. Room size is good and generally clean.I stayed there more than 3 times for business proximity.More</t>
-  </si>
-  <si>
-    <t>texas1946</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r578643490-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
-  </si>
-  <si>
-    <t>578643490</t>
-  </si>
-  <si>
-    <t>05/07/2018</t>
-  </si>
-  <si>
-    <t>GREAT HOTEL AND GOOD LOCATION</t>
-  </si>
-  <si>
-    <t>We stay in Marriott hotels often but haven't been in a Courtyard in years.  This hotel is great and is listed as a 3 star hotel but the rooms were as nice as many 4 stars.  You don't the robes and  some of the special amenities as in a 4-5 star but the rooms are lovely and large. They have a restaurant and a full bar and a coffee bar.  We had a made to order breakfast and it was reasonably priced and very good.  I believe there is a rate that includes breakfast so you might look in to that. The hotel is right off of the George Bush Freeway so is  very convenient.I highly recommend this property.MoreShow less</t>
-  </si>
-  <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t>We stay in Marriott hotels often but haven't been in a Courtyard in years.  This hotel is great and is listed as a 3 star hotel but the rooms were as nice as many 4 stars.  You don't the robes and  some of the special amenities as in a 4-5 star but the rooms are lovely and large. They have a restaurant and a full bar and a coffee bar.  We had a made to order breakfast and it was reasonably priced and very good.  I believe there is a rate that includes breakfast so you might look in to that. The hotel is right off of the George Bush Freeway so is  very convenient.I highly recommend this property.More</t>
-  </si>
-  <si>
-    <t>barbara b</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r576906337-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
-  </si>
-  <si>
-    <t>576906337</t>
-  </si>
-  <si>
-    <t>04/30/2018</t>
-  </si>
-  <si>
-    <t>Good location</t>
-  </si>
-  <si>
-    <t>My folks were visiting from out-of-town (couldn't stay w/us because we are having renovations done). They chose this hotel because...well, Carrollton doesn't have many good hotels.The location (in relation to us) and ease of access is great. There is potential with the surroundings (I understand that the new restaurants will be built "shortly"). I dropped them off (helped take luggage to the room), picked them up and asked questions about their stay. We all agreed that the room and hotel (in general) were nice, clean, and very modern in decor.  Downsides:- the hotel entry looks like a side door - a large porte cache is at the entry but when you pull up...at first we thought that we were at the wrong location bc it is small - the entry at the conference center is huge- no complimentary breakfast ... there is a Starbucks in the Lobby so they did pay for coffee and a bagel breakfast- no safe in the room - thought that there would be since it was a conference center (We looked every where and eventually asked the front desk)- inconvenient link / walkway to the greenbelt walking trail near by- my folks each gave a different review of the bed comfort: one said, it was good - the other said that the bed was too soft - they were surprised at the cost of a candy bar ($3)MoreShow less</t>
-  </si>
-  <si>
-    <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded May 1, 2018</t>
-  </si>
-  <si>
-    <t>Responded May 1, 2018</t>
-  </si>
-  <si>
-    <t>My folks were visiting from out-of-town (couldn't stay w/us because we are having renovations done). They chose this hotel because...well, Carrollton doesn't have many good hotels.The location (in relation to us) and ease of access is great. There is potential with the surroundings (I understand that the new restaurants will be built "shortly"). I dropped them off (helped take luggage to the room), picked them up and asked questions about their stay. We all agreed that the room and hotel (in general) were nice, clean, and very modern in decor.  Downsides:- the hotel entry looks like a side door - a large porte cache is at the entry but when you pull up...at first we thought that we were at the wrong location bc it is small - the entry at the conference center is huge- no complimentary breakfast ... there is a Starbucks in the Lobby so they did pay for coffee and a bagel breakfast- no safe in the room - thought that there would be since it was a conference center (We looked every where and eventually asked the front desk)- inconvenient link / walkway to the greenbelt walking trail near by- my folks each gave a different review of the bed comfort: one said, it was good - the other said that the bed was too soft - they were surprised at the cost of a candy bar ($3)More</t>
-  </si>
-  <si>
-    <t>Richard Ž</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r576009961-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
-  </si>
-  <si>
-    <t>576009961</t>
-  </si>
-  <si>
-    <t>04/27/2018</t>
-  </si>
-  <si>
-    <t>This hotel is awesome.</t>
-  </si>
-  <si>
-    <t>Best hotel room I had. Room is extra large, 2 TVs , 2 sofas.Nice fitness studio with outdoor swimming pool. Located in downtown, nothing to see nearby , only many shops.Even location is not perfect, hotel is really good.</t>
-  </si>
-  <si>
-    <t>jaimehP7850HZ</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r572915986-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
-  </si>
-  <si>
-    <t>572915986</t>
-  </si>
-  <si>
-    <t>04/12/2018</t>
-  </si>
-  <si>
-    <t>Very nice stay.</t>
-  </si>
-  <si>
-    <t>We stayed at this hotel when traveling to Carrollton to buy a car.  We selected this hotel for it's location and great reviews.  We were not disappointed.  The hotel is fairly new and the rooms are very modern and beautiful. The location of the hotel is very quiet and great Korean food is located just about a half mile away.  There are also many other stores in the area.MoreShow less</t>
-  </si>
-  <si>
-    <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded April 13, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 13, 2018</t>
-  </si>
-  <si>
-    <t>We stayed at this hotel when traveling to Carrollton to buy a car.  We selected this hotel for it's location and great reviews.  We were not disappointed.  The hotel is fairly new and the rooms are very modern and beautiful. The location of the hotel is very quiet and great Korean food is located just about a half mile away.  There are also many other stores in the area.More</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r423894411-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>423894411</t>
+  </si>
+  <si>
+    <t>09/30/2016</t>
+  </si>
+  <si>
+    <t>Very, Very Nice</t>
+  </si>
+  <si>
+    <t>New property but from the many Courtyards I have stayed in , this is one of the best.Great rooms, bistro and service. Great pricing also. For me it is convenient to everything in the area. This will be my hotel of choice for my trips to the Carrollton area.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r416923712-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>416923712</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Quiet Stay and Helpful Staff</t>
+  </si>
+  <si>
+    <t>The staff at the hotel made our stay wonderful. My husband was here on business and I traveled with him since I had that time available. The front desk employees were always able to assist with anything we needed. The beds were comfortable and the location was great for my husband's work. I took an Uber to Six Flags about 20 minutes away during one of the days. The manager was very helpful and friendly and the bar was great. 
+If I had one small piece of advice, it would be to have the restaurant open a bit earlier so that people could have lunch at the hotel if they choose to do so. Another possibility would be a deli type setup where guests could grab a premade sandwich of some type. I had traveled with my husband and he used the car to go to work. This particular day I had missed the breakfast time cut off. The only food options at lunchtime without a vehicle were whatever the hotel had to offer, which were chips and small snack food out of the lobby area and vending machines. I know it is a business hotel and most guests are gone during the day, but food options within walking distance of the hotel are nearly non-existent. That was the only problem I had the whole stay though. I did bring some snack foods of my own, so I didn't completely...The staff at the hotel made our stay wonderful. My husband was here on business and I traveled with him since I had that time available. The front desk employees were always able to assist with anything we needed. The beds were comfortable and the location was great for my husband's work. I took an Uber to Six Flags about 20 minutes away during one of the days. The manager was very helpful and friendly and the bar was great. If I had one small piece of advice, it would be to have the restaurant open a bit earlier so that people could have lunch at the hotel if they choose to do so. Another possibility would be a deli type setup where guests could grab a premade sandwich of some type. I had traveled with my husband and he used the car to go to work. This particular day I had missed the breakfast time cut off. The only food options at lunchtime without a vehicle were whatever the hotel had to offer, which were chips and small snack food out of the lobby area and vending machines. I know it is a business hotel and most guests are gone during the day, but food options within walking distance of the hotel are nearly non-existent. That was the only problem I had the whole stay though. I did bring some snack foods of my own, so I didn't completely starve until my husband arrived back from work. He is going to be traveling again this month. Our children and I will go with him this time. We intend to stay here on this next trip too. We were very pleased with the whole experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>The staff at the hotel made our stay wonderful. My husband was here on business and I traveled with him since I had that time available. The front desk employees were always able to assist with anything we needed. The beds were comfortable and the location was great for my husband's work. I took an Uber to Six Flags about 20 minutes away during one of the days. The manager was very helpful and friendly and the bar was great. 
+If I had one small piece of advice, it would be to have the restaurant open a bit earlier so that people could have lunch at the hotel if they choose to do so. Another possibility would be a deli type setup where guests could grab a premade sandwich of some type. I had traveled with my husband and he used the car to go to work. This particular day I had missed the breakfast time cut off. The only food options at lunchtime without a vehicle were whatever the hotel had to offer, which were chips and small snack food out of the lobby area and vending machines. I know it is a business hotel and most guests are gone during the day, but food options within walking distance of the hotel are nearly non-existent. That was the only problem I had the whole stay though. I did bring some snack foods of my own, so I didn't completely...The staff at the hotel made our stay wonderful. My husband was here on business and I traveled with him since I had that time available. The front desk employees were always able to assist with anything we needed. The beds were comfortable and the location was great for my husband's work. I took an Uber to Six Flags about 20 minutes away during one of the days. The manager was very helpful and friendly and the bar was great. If I had one small piece of advice, it would be to have the restaurant open a bit earlier so that people could have lunch at the hotel if they choose to do so. Another possibility would be a deli type setup where guests could grab a premade sandwich of some type. I had traveled with my husband and he used the car to go to work. This particular day I had missed the breakfast time cut off. The only food options at lunchtime without a vehicle were whatever the hotel had to offer, which were chips and small snack food out of the lobby area and vending machines. I know it is a business hotel and most guests are gone during the day, but food options within walking distance of the hotel are nearly non-existent. That was the only problem I had the whole stay though. I did bring some snack foods of my own, so I didn't completely starve until my husband arrived back from work. He is going to be traveling again this month. Our children and I will go with him this time. We intend to stay here on this next trip too. We were very pleased with the whole experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r415736065-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>415736065</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Secluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really enjoyed my stay here. The place is brand new and it even smells new! Beautiful pool area and a large lobby with full bar. I didn't like that I had to walk thru the lobby area in my swimsuit to reach the pool and fitness center. They also need more signage - I had to ask at the front desk how to get to the pool area. But the staff, the new building, and the seclusion from the tollway makes this hotel wonderful. Plenty of shopping and restaurants nearby.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r406297233-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>406297233</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>New and Nice!</t>
+  </si>
+  <si>
+    <t>We stayed last week for business and enjoyed the quiet and very clean room.  The staff was very professional and helpful.  The bar was fun especially visiting with Jason and Neal who clearly love what they do.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r404371024-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>404371024</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>New hotel and very nice!</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a night while in town to watch a local basketball tournament and was very surprised by the fact that the hotel smelled brand new.  The staff checked me in and was extremely helpful.  The room was spacious and the bed was soft, putting me to sleep within 10 minutes of laying across it.  Located near a freeway and next door to a large Urgent Care Emergency Room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r399653242-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>399653242</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>The great staff was always helpful.  Very quiet in the large room even with kids there for tournaments.  Lots of outlets for charging everything. Bed and pillows are comfortable. Close to stores restaurants and a hospital next door. I was able to wash clothes while I was there but needs a chair for people that stay to wash and dry clothes MoreShow less</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at Courtyard Dallas Carrollton and Carrollton Conference Center, responded to this reviewResponded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2016</t>
+  </si>
+  <si>
+    <t>The great staff was always helpful.  Very quiet in the large room even with kids there for tournaments.  Lots of outlets for charging everything. Bed and pillows are comfortable. Close to stores restaurants and a hospital next door. I was able to wash clothes while I was there but needs a chair for people that stay to wash and dry clothes More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d9587654-r398475459-Courtyard_Dallas_Carrollton_and_Carrollton_Conference_Center-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>398475459</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Well located</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel (opened in 2016). Location is good for those who have something to do in the north. If you like to do something downtown Dallas, is far away (about 30 minute drive as well as from the airport). The only thing I did not like is that waste baskets are constantly full and the hotel doesn't seem to empty then that often (in two days I stayed there, twice, was completely full). MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel (opened in 2016). Location is good for those who have something to do in the north. If you like to do something downtown Dallas, is far away (about 30 minute drive as well as from the airport). The only thing I did not like is that waste baskets are constantly full and the hotel doesn't seem to empty then that often (in two days I stayed there, twice, was completely full). More</t>
   </si>
 </sst>
 </file>
@@ -1578,108 +1778,108 @@
       <c r="A2" t="n">
         <v>64841</v>
       </c>
-      <c r="B2" t="n">
-        <v>126678</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64841</v>
       </c>
-      <c r="B3" t="n">
-        <v>126679</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1690,384 +1890,374 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64841</v>
       </c>
-      <c r="B4" t="n">
-        <v>126680</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64841</v>
       </c>
-      <c r="B5" t="n">
-        <v>23585</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>70</v>
-      </c>
-      <c r="X5" t="s">
-        <v>71</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64841</v>
       </c>
-      <c r="B6" t="n">
-        <v>322</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64841</v>
       </c>
-      <c r="B7" t="n">
-        <v>126681</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>87</v>
-      </c>
-      <c r="X7" t="s">
-        <v>88</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64841</v>
       </c>
-      <c r="B8" t="n">
-        <v>57514</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
         <v>100</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>101</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>102</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>103</v>
       </c>
-      <c r="L8" t="s">
-        <v>104</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>105</v>
-      </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
         <v>106</v>
-      </c>
-      <c r="X8" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64841</v>
       </c>
-      <c r="B9" t="n">
-        <v>126682</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
         <v>110</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>111</v>
       </c>
-      <c r="J9" t="s">
-        <v>112</v>
-      </c>
-      <c r="K9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" t="s">
-        <v>114</v>
-      </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2078,61 +2268,53 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>116</v>
-      </c>
-      <c r="X9" t="s">
-        <v>117</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64841</v>
       </c>
-      <c r="B10" t="n">
-        <v>126683</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2143,70 +2325,62 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>125</v>
-      </c>
-      <c r="X10" t="s">
-        <v>126</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64841</v>
       </c>
-      <c r="B11" t="n">
-        <v>37487</v>
-      </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -2215,130 +2389,114 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64841</v>
       </c>
-      <c r="B12" t="n">
-        <v>126684</v>
-      </c>
-      <c r="C12" t="s">
-        <v>135</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64841</v>
       </c>
-      <c r="B13" t="n">
-        <v>126685</v>
-      </c>
-      <c r="C13" t="s">
-        <v>145</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>151</v>
-      </c>
-      <c r="O13" t="s">
-        <v>152</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -2349,129 +2507,117 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="X13" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="Y13" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64841</v>
       </c>
-      <c r="B14" t="n">
-        <v>29363</v>
-      </c>
-      <c r="C14" t="s">
-        <v>156</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="X14" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64841</v>
       </c>
-      <c r="B15" t="n">
-        <v>126686</v>
-      </c>
-      <c r="C15" t="s">
-        <v>165</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2483,13 +2629,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="X15" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -2502,240 +2648,226 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="X16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="Y16" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64841</v>
       </c>
-      <c r="B17" t="n">
-        <v>126687</v>
-      </c>
-      <c r="C17" t="s">
-        <v>182</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="J17" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="O17" t="s">
-        <v>97</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="X17" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="Y17" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64841</v>
       </c>
-      <c r="B18" t="n">
-        <v>126688</v>
-      </c>
-      <c r="C18" t="s">
-        <v>191</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
-        <v>152</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="X18" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="Y18" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64841</v>
       </c>
-      <c r="B19" t="n">
-        <v>126689</v>
-      </c>
-      <c r="C19" t="s">
-        <v>200</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2747,125 +2879,121 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="X19" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="Y19" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64841</v>
       </c>
-      <c r="B20" t="n">
-        <v>126690</v>
-      </c>
-      <c r="C20" t="s">
-        <v>209</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64841</v>
       </c>
-      <c r="B21" t="n">
-        <v>126691</v>
-      </c>
-      <c r="C21" t="s">
-        <v>219</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2877,197 +3005,189 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="X21" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64841</v>
       </c>
-      <c r="B22" t="n">
-        <v>106372</v>
-      </c>
-      <c r="C22" t="s">
-        <v>229</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="X22" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64841</v>
       </c>
-      <c r="B23" t="n">
-        <v>126692</v>
-      </c>
-      <c r="C23" t="s">
-        <v>236</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="J23" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="K23" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="X23" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64841</v>
       </c>
-      <c r="B24" t="n">
-        <v>126693</v>
-      </c>
-      <c r="C24" t="s">
-        <v>247</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="J24" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
@@ -3078,147 +3198,139 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="X24" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="Y24" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64841</v>
       </c>
-      <c r="B25" t="n">
-        <v>126694</v>
-      </c>
-      <c r="C25" t="s">
-        <v>254</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s">
-        <v>152</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="X25" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="Y25" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64841</v>
       </c>
-      <c r="B26" t="n">
-        <v>126695</v>
-      </c>
-      <c r="C26" t="s">
-        <v>263</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="J26" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="O26" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="X26" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="Y26" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27">
@@ -3231,37 +3343,37 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3273,189 +3385,187 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="X27" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="Y27" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64841</v>
       </c>
-      <c r="B28" t="n">
-        <v>3346</v>
-      </c>
-      <c r="C28" t="s">
-        <v>281</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="J28" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="X28" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="Y28" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64841</v>
       </c>
-      <c r="B29" t="n">
-        <v>109912</v>
-      </c>
-      <c r="C29" t="s">
-        <v>289</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="J29" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="K29" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>266</v>
+      </c>
+      <c r="X29" t="s">
+        <v>267</v>
+      </c>
       <c r="Y29" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64841</v>
       </c>
-      <c r="B30" t="n">
-        <v>19481</v>
-      </c>
-      <c r="C30" t="s">
-        <v>296</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="J30" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="K30" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
+      <c r="N30" t="s">
+        <v>257</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
@@ -3465,57 +3575,57 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>274</v>
+      </c>
+      <c r="X30" t="s">
+        <v>275</v>
+      </c>
       <c r="Y30" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64841</v>
       </c>
-      <c r="B31" t="n">
-        <v>126696</v>
-      </c>
-      <c r="C31" t="s">
-        <v>303</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="J31" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="K31" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3526,57 +3636,57 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>282</v>
+      </c>
+      <c r="X31" t="s">
+        <v>283</v>
+      </c>
       <c r="Y31" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64841</v>
       </c>
-      <c r="B32" t="n">
-        <v>126697</v>
-      </c>
-      <c r="C32" t="s">
-        <v>309</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="J32" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="K32" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>61</v>
+        <v>290</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3588,269 +3698,247 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="X32" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="Y32" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64841</v>
       </c>
-      <c r="B33" t="n">
-        <v>126698</v>
-      </c>
-      <c r="C33" t="s">
-        <v>318</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="J33" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="K33" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="O33" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>300</v>
+      </c>
+      <c r="X33" t="s">
+        <v>301</v>
+      </c>
       <c r="Y33" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64841</v>
       </c>
-      <c r="B34" t="n">
-        <v>15812</v>
-      </c>
-      <c r="C34" t="s">
-        <v>326</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="J34" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="O34" t="s">
-        <v>97</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="X34" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="Y34" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64841</v>
       </c>
-      <c r="B35" t="n">
-        <v>126699</v>
-      </c>
-      <c r="C35" t="s">
-        <v>335</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="J35" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="K35" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>53</v>
+        <v>314</v>
       </c>
       <c r="O35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>316</v>
+      </c>
+      <c r="X35" t="s">
+        <v>317</v>
+      </c>
       <c r="Y35" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64841</v>
       </c>
-      <c r="B36" t="n">
-        <v>126700</v>
-      </c>
-      <c r="C36" t="s">
-        <v>341</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="J36" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="K36" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>105</v>
+        <v>314</v>
       </c>
       <c r="O36" t="s">
-        <v>97</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -3860,13 +3948,857 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
+        <v>282</v>
+      </c>
+      <c r="X36" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64841</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>326</v>
+      </c>
+      <c r="J37" t="s">
+        <v>327</v>
+      </c>
+      <c r="K37" t="s">
+        <v>328</v>
+      </c>
+      <c r="L37" t="s">
+        <v>329</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>314</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>330</v>
+      </c>
+      <c r="X37" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64841</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>334</v>
+      </c>
+      <c r="J38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K38" t="s">
+        <v>336</v>
+      </c>
+      <c r="L38" t="s">
+        <v>337</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>314</v>
+      </c>
+      <c r="O38" t="s">
+        <v>88</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>338</v>
+      </c>
+      <c r="X38" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64841</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>341</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>342</v>
+      </c>
+      <c r="J39" t="s">
+        <v>343</v>
+      </c>
+      <c r="K39" t="s">
+        <v>344</v>
+      </c>
+      <c r="L39" t="s">
+        <v>345</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>346</v>
+      </c>
+      <c r="O39" t="s">
+        <v>88</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
         <v>347</v>
       </c>
-      <c r="X36" t="s">
+      <c r="X39" t="s">
         <v>348</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Y39" t="s">
         <v>349</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64841</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>350</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>351</v>
+      </c>
+      <c r="J40" t="s">
+        <v>352</v>
+      </c>
+      <c r="K40" t="s">
+        <v>353</v>
+      </c>
+      <c r="L40" t="s">
+        <v>354</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>355</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>347</v>
+      </c>
+      <c r="X40" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64841</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>357</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>358</v>
+      </c>
+      <c r="J41" t="s">
+        <v>359</v>
+      </c>
+      <c r="K41" t="s">
+        <v>360</v>
+      </c>
+      <c r="L41" t="s">
+        <v>361</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>355</v>
+      </c>
+      <c r="O41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64841</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>363</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>364</v>
+      </c>
+      <c r="J42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K42" t="s">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s">
+        <v>367</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64841</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>369</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>370</v>
+      </c>
+      <c r="J43" t="s">
+        <v>371</v>
+      </c>
+      <c r="K43" t="s">
+        <v>372</v>
+      </c>
+      <c r="L43" t="s">
+        <v>373</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>355</v>
+      </c>
+      <c r="O43" t="s">
+        <v>88</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64841</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>374</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>375</v>
+      </c>
+      <c r="J44" t="s">
+        <v>376</v>
+      </c>
+      <c r="K44" t="s">
+        <v>377</v>
+      </c>
+      <c r="L44" t="s">
+        <v>378</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>379</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64841</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>381</v>
+      </c>
+      <c r="J45" t="s">
+        <v>382</v>
+      </c>
+      <c r="K45" t="s">
+        <v>383</v>
+      </c>
+      <c r="L45" t="s">
+        <v>384</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>385</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64841</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>387</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>388</v>
+      </c>
+      <c r="J46" t="s">
+        <v>389</v>
+      </c>
+      <c r="K46" t="s">
+        <v>390</v>
+      </c>
+      <c r="L46" t="s">
+        <v>391</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64841</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>392</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>393</v>
+      </c>
+      <c r="J47" t="s">
+        <v>394</v>
+      </c>
+      <c r="K47" t="s">
+        <v>395</v>
+      </c>
+      <c r="L47" t="s">
+        <v>396</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>346</v>
+      </c>
+      <c r="O47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64841</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>397</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>398</v>
+      </c>
+      <c r="J48" t="s">
+        <v>399</v>
+      </c>
+      <c r="K48" t="s">
+        <v>400</v>
+      </c>
+      <c r="L48" t="s">
+        <v>401</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>385</v>
+      </c>
+      <c r="O48" t="s">
+        <v>132</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64841</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>402</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J49" t="s">
+        <v>404</v>
+      </c>
+      <c r="K49" t="s">
+        <v>405</v>
+      </c>
+      <c r="L49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>385</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>407</v>
+      </c>
+      <c r="X49" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64841</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>410</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>411</v>
+      </c>
+      <c r="J50" t="s">
+        <v>412</v>
+      </c>
+      <c r="K50" t="s">
+        <v>413</v>
+      </c>
+      <c r="L50" t="s">
+        <v>414</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>385</v>
+      </c>
+      <c r="O50" t="s">
+        <v>132</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>407</v>
+      </c>
+      <c r="X50" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
